--- a/bio.Web.Test/ProductTableTest.xlsx
+++ b/bio.Web.Test/ProductTableTest.xlsx
@@ -260,9 +260,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -378,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,9 +415,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -443,8 +436,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,11 +745,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="6" max="6" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36">
@@ -766,162 +774,162 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="21">
         <v>13500</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="21">
         <v>9497</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="21">
         <v>3404</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
